--- a/03Acoustic/20250407/round4/FinalResult_retry_mode3_rand0_nelx32_20250506_005903.xlsx
+++ b/03Acoustic/20250407/round4/FinalResult_retry_mode3_rand0_nelx32_20250506_005903.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TopologyOptimization\03Acoustic\20250407\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\TopologyOptimization\03Acoustic\20250407\round4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1E0819-EEFB-4B88-B0A3-F41105DF86AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EBA4AE-8807-4248-9040-7728B3E21646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+      <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2227,6 +2227,14 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f>AVERAGE(A2:A31)</f>
+        <v>496.5</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(B2:B31)</f>
+        <v>119.65481718000001</v>
+      </c>
       <c r="R32">
         <f>AVERAGE(R2:R31)</f>
         <v>7.829611179914682E-2</v>
